--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41602.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41602.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.26</v>
+        <v>4.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.34</v>
+        <v>3.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.84</v>
+        <v>4.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.89</v>
+        <v>2.19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.41</v>
+        <v>21.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.45</v>
+        <v>4.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.58</v>
+        <v>1.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.32</v>
+        <v>2.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.41</v>
+        <v>2.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.84</v>
+        <v>4.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41602.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.74</v>
+        <v>3.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.88</v>
+        <v>10.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41602.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.64</v>
+        <v>1.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.62</v>
+        <v>4.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.1</v>
+        <v>3.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.86</v>
+        <v>5.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.02</v>
+        <v>2.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>213.38</v>
+        <v>21.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.36</v>
+        <v>4.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.3</v>
+        <v>2.73</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.12</v>
+        <v>2.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.6</v>
+        <v>4.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41602.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>22</v>
+        <v>2.2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>58.95</v>
+        <v>5.9</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41602.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>56.64</v>
+        <v>5.66</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41602.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.64</v>
+        <v>2.96</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.19</v>
+        <v>2.42</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.64</v>
+        <v>3.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>153.93</v>
+        <v>15.39</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>29.45</v>
+        <v>2.95</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.93</v>
+        <v>1.99</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>34.8</v>
+        <v>3.48</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41602.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N9" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>2.18</v>
-      </c>
       <c r="O9" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>95.59999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>25.73</v>
+        <v>2.57</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41602.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>29.54</v>
+        <v>2.95</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>107.04</v>
+        <v>10.7</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>26.74</v>
+        <v>2.67</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.75</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41602.34027777778</v>
+        <v>44851.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.68</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.47</v>
+        <v>3.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.79</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.08</v>
+        <v>1.32</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.23</v>
+        <v>4.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.23</v>
+        <v>1.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.05</v>
+        <v>1.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>1.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.14</v>
+        <v>2.08</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.06</v>
+        <v>1.15</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.26</v>
+        <v>1.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.11</v>
+        <v>3.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.25</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41602.34722222222</v>
+        <v>44851.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="P3" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>2.19</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.38</v>
+        <v>6.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.73</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41602.35416666666</v>
+        <v>44851.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.87</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.82</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.69</v>
+        <v>7.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41602.36111111111</v>
+        <v>44851.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.06</v>
+        <v>2.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.31</v>
+        <v>2.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.49</v>
+        <v>3.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.61</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.34</v>
+        <v>13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.04</v>
+        <v>2.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.83</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.73</v>
+        <v>1.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.46</v>
+        <v>0.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.71</v>
+        <v>1.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.96</v>
+        <v>3.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41602.36805555555</v>
+        <v>44851.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.57</v>
+        <v>12.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.41</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.85</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.23</v>
+        <v>27.15</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.98</v>
+        <v>21.99</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.44</v>
+        <v>9.83</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.2</v>
+        <v>38.01</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.64</v>
+        <v>15.12</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.32</v>
+        <v>6.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.48</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.46</v>
+        <v>10.9</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.5</v>
+        <v>11.48</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.14</v>
+        <v>3.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.45</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.55</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>5.9</v>
+        <v>141.46</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.23</v>
+        <v>27.34</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.4</v>
+        <v>9.02</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.83</v>
+        <v>18.28</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.45</v>
+        <v>9.57</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.09</v>
+        <v>1.55</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.04</v>
+        <v>18.45</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.36</v>
+        <v>7.97</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.36</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.54</v>
+        <v>11.44</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.03</v>
+        <v>34.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.24</v>
+        <v>5.03</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41602.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41602.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41602.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41602.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41602.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1.81</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44851.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44851.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.21</v>
+        <v>52.1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.09</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.11</v>
+        <v>71.11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.75</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.26</v>
+        <v>52.56</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.51</v>
+        <v>35.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.49</v>
+        <v>64.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44851.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>7.86</v>
+        <v>78.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.01</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.19</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44851.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.5</v>
+        <v>25.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.46</v>
+        <v>34.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44851.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44851.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.37</v>
+        <v>17.373</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.03</v>
+        <v>2.032</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.1</v>
+        <v>52.101</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.09</v>
+        <v>42.088</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>71.11</v>
+        <v>71.11199999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.72</v>
+        <v>12.723</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.75</v>
+        <v>18.747</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.86</v>
+        <v>20.863</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.9</v>
+        <v>21.903</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.61</v>
+        <v>26.606</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.03</v>
+        <v>16.029</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.588</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.315</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>278.817</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.56</v>
+        <v>52.557</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.06</v>
+        <v>35.056</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.27</v>
+        <v>18.273</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.15</v>
+        <v>3.147</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35</v>
+        <v>35.001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.64</v>
+        <v>13.639</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.12</v>
+        <v>16.123</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.89</v>
+        <v>21.892</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.89</v>
+        <v>64.88800000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.65</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44851.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.97</v>
+        <v>4.968</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.61</v>
+        <v>15.612</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.19</v>
+        <v>12.193</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.29</v>
+        <v>27.288</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.73</v>
+        <v>3.733</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.3</v>
+        <v>5.301</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.26</v>
+        <v>6.256</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.511</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.818</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.93</v>
+        <v>7.931</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>5.02</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.55</v>
+        <v>78.551</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.01</v>
+        <v>16.012</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.48</v>
+        <v>10.484</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.38</v>
+        <v>5.379</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.189</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.59</v>
+        <v>12.589</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.19</v>
+        <v>4.194</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.96</v>
+        <v>4.956</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.54</v>
+        <v>6.542</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.28</v>
+        <v>25.282</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>2.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44851.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.05</v>
+        <v>25.047</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.15</v>
+        <v>20.149</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.55</v>
+        <v>34.551</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.1</v>
+        <v>6.099</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.94</v>
+        <v>8.935</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>10.051</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.897</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.74</v>
+        <v>12.744</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.752</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130</v>
+        <v>130.001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.18</v>
+        <v>25.184</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.76</v>
+        <v>16.757</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.779</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.518</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.67</v>
+        <v>16.669</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.58</v>
+        <v>6.583</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.75</v>
+        <v>7.755</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.54</v>
+        <v>10.541</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.29</v>
+        <v>31.287</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44851.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_170.xlsx
+++ b/DATA_goal/Junction_Flooding_170.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>11.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.047</v>
+        <v>25.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.149</v>
+        <v>20.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.074</v>
+        <v>9.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.551</v>
+        <v>34.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.099</v>
+        <v>6.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.935</v>
+        <v>8.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.051</v>
+        <v>10.05</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.897</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.744</v>
+        <v>12.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.752</v>
+        <v>7.75</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.581</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.001</v>
+        <v>130</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.184</v>
+        <v>25.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.757</v>
+        <v>16.76</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.779</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.518</v>
+        <v>1.52</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.669</v>
+        <v>16.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.583</v>
+        <v>6.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.755</v>
+        <v>7.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.541</v>
+        <v>10.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.287</v>
+        <v>31.29</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>4.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.413</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44851.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.15</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
